--- a/data/trans_orig/P16A10-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2012 (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
+          <t>Población según si ha consumido medicamentos para el corazón en las dos últimas semanas en 2023 (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A10-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A10-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>52827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40677</v>
+        <v>41205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67704</v>
+        <v>66732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09043586077557735</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0696352063507553</v>
+        <v>0.07053913970874945</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1159038154405141</v>
+        <v>0.1142394543065908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -765,19 +765,19 @@
         <v>80034</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64646</v>
+        <v>63947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99060</v>
+        <v>99256</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08677341359054229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07009004706427978</v>
+        <v>0.06933150846998867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.107402064610498</v>
+        <v>0.1076136079822617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -786,19 +786,19 @@
         <v>132861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111920</v>
+        <v>114289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155895</v>
+        <v>157578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08819354184021114</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0742923839338549</v>
+        <v>0.075865463081759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1034834663838647</v>
+        <v>0.1046006811123996</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>531314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>516437</v>
+        <v>517409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>543464</v>
+        <v>542936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9095641392244227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.884096184559486</v>
+        <v>0.8857605456934092</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9303647936492448</v>
+        <v>0.9294608602912505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>808</v>
@@ -836,19 +836,19 @@
         <v>842299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>823273</v>
+        <v>823077</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>857687</v>
+        <v>858386</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9132265864094578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8925979353895019</v>
+        <v>0.8923863920177383</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9299099529357202</v>
+        <v>0.9306684915300113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1325</v>
@@ -857,19 +857,19 @@
         <v>1373613</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1350579</v>
+        <v>1348896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1394554</v>
+        <v>1392185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9118064581597889</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8965165336161354</v>
+        <v>0.8953993188875995</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9257076160661452</v>
+        <v>0.9241345369182407</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>62306</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48743</v>
+        <v>48450</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78739</v>
+        <v>79137</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05780370817657605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04522064531198962</v>
+        <v>0.04494918757684659</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07304867002215916</v>
+        <v>0.07341781924374273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -982,19 +982,19 @@
         <v>51939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38463</v>
+        <v>40707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68092</v>
+        <v>67816</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04911271861819202</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03637009190796529</v>
+        <v>0.03849239312722395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06438702100565011</v>
+        <v>0.0641266293764501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -1003,19 +1003,19 @@
         <v>114245</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95860</v>
+        <v>95648</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135160</v>
+        <v>136007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05349963687428507</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04489018803655286</v>
+        <v>0.04479090935169255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06329406453188736</v>
+        <v>0.06369051943049935</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1015588</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>999155</v>
+        <v>998757</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1029151</v>
+        <v>1029444</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9421962918234239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9269513299778409</v>
+        <v>0.9265821807562573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9547793546880105</v>
+        <v>0.9550508124231534</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>979</v>
@@ -1053,19 +1053,19 @@
         <v>1005599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>989446</v>
+        <v>989722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1019075</v>
+        <v>1016831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.950887281381808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9356129789943499</v>
+        <v>0.9358733706235489</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9636299080920347</v>
+        <v>0.9615076068727758</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1969</v>
@@ -1074,19 +1074,19 @@
         <v>2021187</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2000272</v>
+        <v>1999425</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2039572</v>
+        <v>2039784</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9465003631257149</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9367059354681126</v>
+        <v>0.9363094805695014</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9551098119634471</v>
+        <v>0.9552090906483075</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>38123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27970</v>
+        <v>27810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51497</v>
+        <v>52426</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0340206327198523</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02496032747386555</v>
+        <v>0.02481749688201584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04595565486530802</v>
+        <v>0.04678515235535759</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1199,19 +1199,19 @@
         <v>32251</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22332</v>
+        <v>23284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44051</v>
+        <v>44606</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0324474155666564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02246843932556917</v>
+        <v>0.02342601278435645</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04431937728088848</v>
+        <v>0.04487780963882292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1220,19 +1220,19 @@
         <v>70373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55568</v>
+        <v>55057</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87789</v>
+        <v>87411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03328113344476198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02627922266411564</v>
+        <v>0.02603763236516589</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04151711803388614</v>
+        <v>0.04133836401375519</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1082453</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1069079</v>
+        <v>1068150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1092606</v>
+        <v>1092766</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9659793672801477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9540443451346918</v>
+        <v>0.953214847644642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9750396725261344</v>
+        <v>0.9751825031179836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>950</v>
@@ -1270,19 +1270,19 @@
         <v>961689</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>949889</v>
+        <v>949334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>971608</v>
+        <v>970656</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9675525844333436</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9556806227191116</v>
+        <v>0.9551221903611771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9775315606744308</v>
+        <v>0.9765739872156435</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2014</v>
@@ -1291,19 +1291,19 @@
         <v>2044143</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2026727</v>
+        <v>2027105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2058948</v>
+        <v>2059459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.966718866555238</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9584828819661141</v>
+        <v>0.9586616359862449</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9737207773358845</v>
+        <v>0.9739623676348341</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>15633</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9164</v>
+        <v>8808</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25434</v>
+        <v>24447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0349585599462399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02049195721321738</v>
+        <v>0.0196961011461523</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05687340597968342</v>
+        <v>0.05466583731753746</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -1416,19 +1416,19 @@
         <v>12514</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6800</v>
+        <v>6821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20636</v>
+        <v>21236</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03668138278107219</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01993181405068536</v>
+        <v>0.01999480215422549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06048809190180604</v>
+        <v>0.06224604733439038</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -1437,19 +1437,19 @@
         <v>28148</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18277</v>
+        <v>18874</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39425</v>
+        <v>39406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03570410346751943</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02318306774610657</v>
+        <v>0.02394103597825847</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05000914265861901</v>
+        <v>0.04998450707425111</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>431567</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>421766</v>
+        <v>422753</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>438036</v>
+        <v>438392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9650414400537601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9431265940203167</v>
+        <v>0.9453341626824627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9795080427867827</v>
+        <v>0.9803038988538479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -1487,19 +1487,19 @@
         <v>328644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>320522</v>
+        <v>319922</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334358</v>
+        <v>334337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9633186172189278</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9395119080981938</v>
+        <v>0.9377539526656099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9800681859493146</v>
+        <v>0.9800051978457746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>747</v>
@@ -1508,19 +1508,19 @@
         <v>760210</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>748933</v>
+        <v>748952</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>770081</v>
+        <v>769484</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9642958965324806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.949990857341381</v>
+        <v>0.9500154929257488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9768169322538933</v>
+        <v>0.9760589640217414</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>168890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144692</v>
+        <v>145395</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192610</v>
+        <v>196194</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05229090936544819</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04479893659886997</v>
+        <v>0.04501656565976563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05963510536285953</v>
+        <v>0.06074469999470955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>170</v>
@@ -1633,19 +1633,19 @@
         <v>176737</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>152375</v>
+        <v>154732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202490</v>
+        <v>208546</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05331497501501374</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04596578291165083</v>
+        <v>0.04667671434462191</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0610833913927637</v>
+        <v>0.06291030977000114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>346</v>
@@ -1654,19 +1654,19 @@
         <v>345627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>309816</v>
+        <v>311782</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>383106</v>
+        <v>385282</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05280960452807949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04733785791614713</v>
+        <v>0.04763823407641636</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05853618428178534</v>
+        <v>0.05886854500957472</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3060921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3037201</v>
+        <v>3033617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3085119</v>
+        <v>3084416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9477090906345518</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9403648946371405</v>
+        <v>0.9392553000052904</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9552010634011301</v>
+        <v>0.9549834343402344</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3064</v>
@@ -1704,19 +1704,19 @@
         <v>3138232</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3112479</v>
+        <v>3106423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3162594</v>
+        <v>3160237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9466850249849863</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9389166086072365</v>
+        <v>0.9370896902299989</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9540342170883491</v>
+        <v>0.953323285655378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6055</v>
@@ -1725,19 +1725,19 @@
         <v>6199153</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6161674</v>
+        <v>6159498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6234964</v>
+        <v>6232998</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9471903954719205</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9414638157182156</v>
+        <v>0.9411314549904263</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.952662142083853</v>
+        <v>0.9523617659235841</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>50526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36664</v>
+        <v>38293</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66568</v>
+        <v>66681</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0485909170079924</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03525958721042512</v>
+        <v>0.03682658930391845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06401863969969612</v>
+        <v>0.06412761259532807</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>71</v>
@@ -2090,19 +2090,19 @@
         <v>76206</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60218</v>
+        <v>59685</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96765</v>
+        <v>93084</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06817509121331103</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05387255132655852</v>
+        <v>0.0533955579516764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08656801580811474</v>
+        <v>0.08327499764068476</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>118</v>
@@ -2111,19 +2111,19 @@
         <v>126731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106593</v>
+        <v>106587</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>150174</v>
+        <v>149613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.058736899718801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04940328208927424</v>
+        <v>0.04940045084123322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06960179874221963</v>
+        <v>0.06934200566348374</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>989291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>973249</v>
+        <v>973136</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1003153</v>
+        <v>1001524</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9514090829920075</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.935981360300304</v>
+        <v>0.9358723874046718</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9647404127895751</v>
+        <v>0.9631734106960815</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>958</v>
@@ -2161,19 +2161,19 @@
         <v>1041589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1021030</v>
+        <v>1024711</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1057577</v>
+        <v>1058110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.931824908786689</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9134319841918853</v>
+        <v>0.9167250023593152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9461274486734416</v>
+        <v>0.9466044420483236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1886</v>
@@ -2182,19 +2182,19 @@
         <v>2030882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2007439</v>
+        <v>2008000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2051020</v>
+        <v>2051026</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.941263100281199</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9303982012577804</v>
+        <v>0.9306579943365163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9505967179107258</v>
+        <v>0.9505995491587668</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>49248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37436</v>
+        <v>36783</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65713</v>
+        <v>65088</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05049303401230565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03838255043866091</v>
+        <v>0.03771281226349286</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0673738166332823</v>
+        <v>0.0667330262666823</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -2307,19 +2307,19 @@
         <v>46513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35319</v>
+        <v>35296</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61670</v>
+        <v>62584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04258746467627166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03233843718552561</v>
+        <v>0.03231723353650325</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05646556394654535</v>
+        <v>0.05730221824889836</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>89</v>
@@ -2328,19 +2328,19 @@
         <v>95761</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76248</v>
+        <v>78033</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115142</v>
+        <v>119280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04631688290346567</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0368787591340261</v>
+        <v>0.03774220317905912</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05569065348982007</v>
+        <v>0.05769249356641826</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>926096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909631</v>
+        <v>910256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>937908</v>
+        <v>938561</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9495069659876944</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9326261833667178</v>
+        <v>0.9332669737333178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9616174495613391</v>
+        <v>0.9622871877365073</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>974</v>
@@ -2378,19 +2378,19 @@
         <v>1045664</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1030507</v>
+        <v>1029593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1056858</v>
+        <v>1056881</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9574125353237284</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9435344360534548</v>
+        <v>0.9426977817511016</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9676615628144745</v>
+        <v>0.9676827664634968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1851</v>
@@ -2399,19 +2399,19 @@
         <v>1971761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1952380</v>
+        <v>1948242</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1991274</v>
+        <v>1989489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9536831170965343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9443093465101798</v>
+        <v>0.9423075064335817</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9631212408659738</v>
+        <v>0.962257796820941</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>59435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44507</v>
+        <v>45916</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75026</v>
+        <v>75418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06722009719938393</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05033662057672045</v>
+        <v>0.05193056957236599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08485283752951243</v>
+        <v>0.08529635621995413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -2524,19 +2524,19 @@
         <v>36365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25936</v>
+        <v>25329</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48529</v>
+        <v>52189</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04166758214138836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02971833094934128</v>
+        <v>0.02902281497993563</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05560540624954614</v>
+        <v>0.05979930169165989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -2545,19 +2545,19 @@
         <v>95800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76314</v>
+        <v>78360</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116329</v>
+        <v>116142</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05452705522296097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04343613079454892</v>
+        <v>0.0446008713838369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06621188681612306</v>
+        <v>0.06610518426820565</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>824750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809159</v>
+        <v>808767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>839678</v>
+        <v>838269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9327799028006161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9151471624704874</v>
+        <v>0.9147036437800453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9496633794232795</v>
+        <v>0.9480694304276337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>784</v>
@@ -2595,19 +2595,19 @@
         <v>836377</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>824213</v>
+        <v>820553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>846806</v>
+        <v>847413</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9583324178586117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9443945937504538</v>
+        <v>0.9402006983083401</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9702816690506587</v>
+        <v>0.9709771850200644</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1558</v>
@@ -2616,19 +2616,19 @@
         <v>1661127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1640598</v>
+        <v>1640785</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1680613</v>
+        <v>1678567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.945472944777039</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.933788113183877</v>
+        <v>0.9338948157317948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.956563869205451</v>
+        <v>0.9553991286161632</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>21280</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13234</v>
+        <v>13023</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33052</v>
+        <v>32470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04230357215849469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02630945296698129</v>
+        <v>0.02589038368661748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06570580239068718</v>
+        <v>0.0645505102179188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -2741,19 +2741,19 @@
         <v>10268</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5020</v>
+        <v>5251</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19330</v>
+        <v>19613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02277377611280966</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01113441430830578</v>
+        <v>0.01164577085544888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04287224585355577</v>
+        <v>0.04350115267577149</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -2762,19 +2762,19 @@
         <v>31548</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20566</v>
+        <v>21304</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42813</v>
+        <v>45960</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03307257491040879</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02156041275716703</v>
+        <v>0.02233327054786761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04488212936458928</v>
+        <v>0.04818127744403047</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>481743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>469971</v>
+        <v>470553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489789</v>
+        <v>490000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9576964278415053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.934294197609313</v>
+        <v>0.9354494897820812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9736905470330187</v>
+        <v>0.9741096163133826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>401</v>
@@ -2812,19 +2812,19 @@
         <v>440600</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>431538</v>
+        <v>431255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>445848</v>
+        <v>445617</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9772262238871904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9571277541464442</v>
+        <v>0.9564988473242289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9888655856916942</v>
+        <v>0.9883542291445511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>843</v>
@@ -2833,19 +2833,19 @@
         <v>922343</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>911078</v>
+        <v>907931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>933325</v>
+        <v>932587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9669274250895912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9551178706354106</v>
+        <v>0.9518187225559696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.978439587242833</v>
+        <v>0.9776667294521325</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>180488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156173</v>
+        <v>158709</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210245</v>
+        <v>207498</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05304786652658995</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04590137472895134</v>
+        <v>0.04664656541101988</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06179358692788311</v>
+        <v>0.06098620964894067</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>158</v>
@@ -2958,19 +2958,19 @@
         <v>169352</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>145383</v>
+        <v>144584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197238</v>
+        <v>199157</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04792639500553986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04114308923976692</v>
+        <v>0.04091708536486158</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05581817817810766</v>
+        <v>0.0563613031457105</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -2979,19 +2979,19 @@
         <v>349840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>313451</v>
+        <v>315379</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>388615</v>
+        <v>389165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0504386871904937</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04519219950842394</v>
+        <v>0.0454702188109477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05602906882533519</v>
+        <v>0.05610831511950294</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3221881</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3192124</v>
+        <v>3194871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3246196</v>
+        <v>3243660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.94695213347341</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9382064130721167</v>
+        <v>0.9390137903510593</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9540986252710487</v>
+        <v>0.9533534345889801</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3117</v>
@@ -3029,19 +3029,19 @@
         <v>3364231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3336345</v>
+        <v>3334426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3388200</v>
+        <v>3388999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9520736049944601</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9441818218218924</v>
+        <v>0.9436386968542896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9588569107602332</v>
+        <v>0.9590829146351385</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6138</v>
@@ -3050,19 +3050,19 @@
         <v>6586112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6547337</v>
+        <v>6546787</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6622501</v>
+        <v>6620573</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9495613128095063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9439709311746647</v>
+        <v>0.9438916848804975</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.954807800491576</v>
+        <v>0.9545297811890527</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>64192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51140</v>
+        <v>50277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82371</v>
+        <v>80605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05690759705306099</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04533670141141197</v>
+        <v>0.04457180290211629</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07302454888285212</v>
+        <v>0.07145859849601491</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -3415,19 +3415,19 @@
         <v>74199</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59136</v>
+        <v>56857</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94827</v>
+        <v>91729</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05890853295239358</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0469492966456055</v>
+        <v>0.04514007638881222</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07528559975175127</v>
+        <v>0.07282611733551027</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -3436,19 +3436,19 @@
         <v>138390</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117941</v>
+        <v>117015</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162497</v>
+        <v>162952</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05796319459743225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04939818598594118</v>
+        <v>0.04901020632835531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06805974508885834</v>
+        <v>0.06825034961610654</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1063805</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1045626</v>
+        <v>1047392</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1076857</v>
+        <v>1077720</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.943092402946939</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9269754511171475</v>
+        <v>0.9285414015039851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9546632985885879</v>
+        <v>0.9554281970978837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1124</v>
@@ -3486,19 +3486,19 @@
         <v>1185362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1164734</v>
+        <v>1167832</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1200425</v>
+        <v>1202704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9410914670476064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9247144002482486</v>
+        <v>0.9271738826644891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9530507033543945</v>
+        <v>0.9548599236111877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2124</v>
@@ -3507,19 +3507,19 @@
         <v>2249168</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2225061</v>
+        <v>2224606</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2269617</v>
+        <v>2270543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9420368054025677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9319402549111416</v>
+        <v>0.9317496503838935</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9506018140140587</v>
+        <v>0.9509897936716448</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>56230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43764</v>
+        <v>43587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72930</v>
+        <v>72778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06187055045382715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04815404379260059</v>
+        <v>0.0479596214729617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08024649843100576</v>
+        <v>0.08007956882870154</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -3632,19 +3632,19 @@
         <v>54303</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41345</v>
+        <v>40961</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70381</v>
+        <v>71579</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05395379014744441</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04107860507804793</v>
+        <v>0.04069737342243379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06992772425933683</v>
+        <v>0.07111850506944738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3653,19 +3653,19 @@
         <v>110533</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90714</v>
+        <v>91426</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133182</v>
+        <v>135548</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05771035447220674</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04736265435417009</v>
+        <v>0.04773436063470093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06953606356679835</v>
+        <v>0.0707710723366257</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>852595</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>835895</v>
+        <v>836047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>865061</v>
+        <v>865238</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9381294495461728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9197535015689943</v>
+        <v>0.9199204311712984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9518459562073993</v>
+        <v>0.9520403785270383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>904</v>
@@ -3703,19 +3703,19 @@
         <v>952172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>936094</v>
+        <v>934896</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>965130</v>
+        <v>965514</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9460462098525556</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9300722757406632</v>
+        <v>0.9288814949305526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9589213949219515</v>
+        <v>0.9593026265775662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1729</v>
@@ -3724,19 +3724,19 @@
         <v>1804767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1782118</v>
+        <v>1779752</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1824586</v>
+        <v>1823874</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9422896455277933</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9304639364332017</v>
+        <v>0.9292289276633743</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9526373456458301</v>
+        <v>0.9522656393652991</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>53757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40624</v>
+        <v>41190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68957</v>
+        <v>70622</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06525790077689865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04931511031704248</v>
+        <v>0.05000304183590545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08371025465206097</v>
+        <v>0.08573104671868199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -3849,19 +3849,19 @@
         <v>31323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20456</v>
+        <v>19464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45882</v>
+        <v>42994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04062315853295301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02652950928480589</v>
+        <v>0.02524307295417776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05950475105012128</v>
+        <v>0.05575908063023854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -3870,19 +3870,19 @@
         <v>85080</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68541</v>
+        <v>68174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104403</v>
+        <v>106540</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05334755591912057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04297712539302465</v>
+        <v>0.04274695630917667</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0654638266425787</v>
+        <v>0.06680407511064385</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>770002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>754802</v>
+        <v>753137</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>783135</v>
+        <v>782569</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9347420992231014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9162897453479393</v>
+        <v>0.9142689532813181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9506848896829576</v>
+        <v>0.9499969581640948</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>702</v>
@@ -3920,19 +3920,19 @@
         <v>739736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>725177</v>
+        <v>728065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>750603</v>
+        <v>751595</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.959376841467047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9404952489498796</v>
+        <v>0.9442409193697613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.973470490715195</v>
+        <v>0.9747569270458222</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1435</v>
@@ -3941,19 +3941,19 @@
         <v>1509738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1490415</v>
+        <v>1488278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1526277</v>
+        <v>1526644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9466524440808795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9345361733574213</v>
+        <v>0.9331959248893561</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9570228746069753</v>
+        <v>0.9572530436908225</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>26863</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17341</v>
+        <v>18531</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39961</v>
+        <v>39830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05301599854160276</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03422387868299879</v>
+        <v>0.03657218997502778</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07886567390571127</v>
+        <v>0.07860644503150283</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4066,19 +4066,19 @@
         <v>30111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20425</v>
+        <v>19678</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44203</v>
+        <v>42989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06148806603966264</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04170991658723826</v>
+        <v>0.04018296724452932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09026509510502941</v>
+        <v>0.08778677160390104</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -4087,19 +4087,19 @@
         <v>56974</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42275</v>
+        <v>43185</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74553</v>
+        <v>75498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0571797451833178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04242733969005797</v>
+        <v>0.04334079747838648</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07482227448374444</v>
+        <v>0.07577117771174632</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>479838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>466740</v>
+        <v>466871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>489360</v>
+        <v>488170</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9469840014583972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9211343260942885</v>
+        <v>0.9213935549684968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657761213170012</v>
+        <v>0.9634278100249722</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>431</v>
@@ -4137,19 +4137,19 @@
         <v>459587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>445495</v>
+        <v>446709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>469273</v>
+        <v>470020</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9385119339603374</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9097349048949707</v>
+        <v>0.912213228396099</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9582900834127619</v>
+        <v>0.9598170327554709</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>877</v>
@@ -4158,19 +4158,19 @@
         <v>939424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>921845</v>
+        <v>920900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>954123</v>
+        <v>953213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9428202548166822</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9251777255162555</v>
+        <v>0.9242288222882538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.957572660309942</v>
+        <v>0.9566592025216136</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>201041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>175272</v>
+        <v>173768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>230901</v>
+        <v>228283</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05970427963106785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05205161056111679</v>
+        <v>0.05160484226294837</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0685718279798002</v>
+        <v>0.0677944072652502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -4283,19 +4283,19 @@
         <v>189935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>163225</v>
+        <v>164215</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>221893</v>
+        <v>222767</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05385500788345836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04628136699588803</v>
+        <v>0.04656227379980465</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06291627180242017</v>
+        <v>0.06316424115048179</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>362</v>
@@ -4304,19 +4304,19 @@
         <v>390977</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>351320</v>
+        <v>353923</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>429532</v>
+        <v>429068</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05671197565074969</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05095974904274544</v>
+        <v>0.05133730307937415</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0623044475718335</v>
+        <v>0.0622371719336433</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3166241</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3136381</v>
+        <v>3138999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3192010</v>
+        <v>3193514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9402957203689322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9314281720201997</v>
+        <v>0.9322055927347499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9479483894388832</v>
+        <v>0.9483951577370517</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3161</v>
@@ -4354,19 +4354,19 @@
         <v>3336857</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3304899</v>
+        <v>3304025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3363567</v>
+        <v>3362577</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9461449921165417</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9370837281975801</v>
+        <v>0.9368357588495183</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.953718633004112</v>
+        <v>0.9534377262001954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6165</v>
@@ -4375,19 +4375,19 @@
         <v>6503098</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6464543</v>
+        <v>6465007</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6542755</v>
+        <v>6540152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9432880243492503</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9376955524281665</v>
+        <v>0.9377628280663566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9490402509572545</v>
+        <v>0.9486626969206258</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>38751</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29059</v>
+        <v>28112</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51667</v>
+        <v>50991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07769806865202195</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05826400767611534</v>
+        <v>0.05636661668838614</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1035959750106278</v>
+        <v>0.1022400048170991</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -4740,19 +4740,19 @@
         <v>48780</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39431</v>
+        <v>38979</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59978</v>
+        <v>59544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07831559588565443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06330533976082123</v>
+        <v>0.06258034599120629</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0962927768784716</v>
+        <v>0.09559700733990605</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -4761,19 +4761,19 @@
         <v>87531</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72745</v>
+        <v>73345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>101982</v>
+        <v>103477</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0780410033581823</v>
+        <v>0.07804100335818229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06485788612550243</v>
+        <v>0.06539236114173196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09092511865405643</v>
+        <v>0.09225772989306651</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>459988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>447072</v>
+        <v>447748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>469680</v>
+        <v>470627</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9223019313479781</v>
+        <v>0.922301931347978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8964040249893725</v>
+        <v>0.8977599951829012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9417359923238852</v>
+        <v>0.9436333833116139</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>779</v>
@@ -4811,19 +4811,19 @@
         <v>574088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>562890</v>
+        <v>563324</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583437</v>
+        <v>583889</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9216844041143456</v>
+        <v>0.9216844041143455</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9037072231215282</v>
+        <v>0.9044029926600939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9366946602391788</v>
+        <v>0.9374196540087937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1188</v>
@@ -4832,19 +4832,19 @@
         <v>1034077</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1019626</v>
+        <v>1018131</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1048863</v>
+        <v>1048263</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9219589966418176</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9090748813459439</v>
+        <v>0.9077422701069339</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9351421138744982</v>
+        <v>0.934607638858268</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>67690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>54137</v>
+        <v>54963</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84886</v>
+        <v>82502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0704999634882968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05638429427685981</v>
+        <v>0.05724539285798907</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08841004055364127</v>
+        <v>0.0859273635632584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -4957,19 +4957,19 @@
         <v>67542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56998</v>
+        <v>55688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79633</v>
+        <v>79946</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0605620160515102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05110806612954244</v>
+        <v>0.0499333208328873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0714038933930719</v>
+        <v>0.0716850140606828</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>214</v>
@@ -4978,19 +4978,19 @@
         <v>135231</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>117514</v>
+        <v>116531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156284</v>
+        <v>156044</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0651596196474211</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05662294080689942</v>
+        <v>0.0561492733921032</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07530372032144636</v>
+        <v>0.07518809656379696</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>892447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>875251</v>
+        <v>877635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906000</v>
+        <v>905174</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9295000365117032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.911589959446359</v>
+        <v>0.9140726364367421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9436157057231402</v>
+        <v>0.9427546071420111</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1482</v>
@@ -5028,19 +5028,19 @@
         <v>1047704</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1035613</v>
+        <v>1035300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1058248</v>
+        <v>1059558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.93943798394849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9285961066069283</v>
+        <v>0.9283149859393173</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9488919338704577</v>
+        <v>0.9500666791671126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2302</v>
@@ -5049,19 +5049,19 @@
         <v>1940152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1919099</v>
+        <v>1919339</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1957869</v>
+        <v>1958852</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9348403803525788</v>
+        <v>0.9348403803525787</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9246962796785535</v>
+        <v>0.9248119034362031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9433770591931003</v>
+        <v>0.9438507266078969</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>47880</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37068</v>
+        <v>37641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61689</v>
+        <v>60629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04575362337420886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03542155957919341</v>
+        <v>0.03596944388892773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05894905402840585</v>
+        <v>0.05793622741813283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -5174,19 +5174,19 @@
         <v>53416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43156</v>
+        <v>42962</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66882</v>
+        <v>68574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05098652243413151</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0411934501326503</v>
+        <v>0.04100873964192463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06384081637113306</v>
+        <v>0.06545567811699005</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>152</v>
@@ -5195,19 +5195,19 @@
         <v>101296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>85060</v>
+        <v>87037</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120669</v>
+        <v>120943</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0483715251837989</v>
+        <v>0.04837152518379891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04061858176390595</v>
+        <v>0.0415625501561849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05762250930733655</v>
+        <v>0.05775378094124969</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>998599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>984790</v>
+        <v>985850</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1009411</v>
+        <v>1008838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9542463766257911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9410509459715941</v>
+        <v>0.9420637725818669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9645784404208066</v>
+        <v>0.9640305561110722</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1430</v>
@@ -5245,19 +5245,19 @@
         <v>994226</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>980760</v>
+        <v>979068</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1004486</v>
+        <v>1004680</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9490134775658685</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9361591836288669</v>
+        <v>0.9345443218830098</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9588065498673498</v>
+        <v>0.9589912603580752</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2393</v>
@@ -5266,19 +5266,19 @@
         <v>1992825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1973452</v>
+        <v>1973178</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2009061</v>
+        <v>2007084</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9516284748162011</v>
+        <v>0.9516284748162012</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9423774906926636</v>
+        <v>0.9422462190587504</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9593814182360941</v>
+        <v>0.9584374498438153</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>49179</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38338</v>
+        <v>37108</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64281</v>
+        <v>62850</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0503916495502279</v>
+        <v>0.05039164955022792</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03928392370209741</v>
+        <v>0.03802375235944261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06586660336772791</v>
+        <v>0.06440012225766219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -5391,19 +5391,19 @@
         <v>26868</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19175</v>
+        <v>19853</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35630</v>
+        <v>35966</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02956966730074136</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02110256267874241</v>
+        <v>0.02184950151344094</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0392120521427406</v>
+        <v>0.03958189008176267</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -5412,19 +5412,19 @@
         <v>76047</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62731</v>
+        <v>63839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90446</v>
+        <v>90916</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04035237446417558</v>
+        <v>0.04035237446417557</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03328678836918321</v>
+        <v>0.03387451229957786</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04799276662319085</v>
+        <v>0.04824244455152427</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>926750</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>911648</v>
+        <v>913079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937591</v>
+        <v>938821</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9496083504497722</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9341333966322722</v>
+        <v>0.9355998777423378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9607160762979027</v>
+        <v>0.9619762476405573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1272</v>
@@ -5462,19 +5462,19 @@
         <v>881774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>873012</v>
+        <v>872676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>889467</v>
+        <v>888789</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9704303326992586</v>
+        <v>0.9704303326992585</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9607879478572601</v>
+        <v>0.9604181099182371</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9788974373212577</v>
+        <v>0.9781504984865588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2152</v>
@@ -5483,19 +5483,19 @@
         <v>1808524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1794125</v>
+        <v>1793655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1821840</v>
+        <v>1820732</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9596476255358245</v>
+        <v>0.9596476255358243</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9520072333768091</v>
+        <v>0.9517575554484757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9667132116308168</v>
+        <v>0.9661254877004221</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>203500</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>181746</v>
+        <v>180656</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>231037</v>
+        <v>230562</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05845531647882193</v>
+        <v>0.05845531647882192</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05220650905798337</v>
+        <v>0.05189349356706123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06636548099998613</v>
+        <v>0.06622912270781688</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>340</v>
@@ -5608,19 +5608,19 @@
         <v>196606</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175324</v>
+        <v>174003</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220311</v>
+        <v>217611</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05321725018155862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04745669829170757</v>
+        <v>0.04709924784067047</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05963379634111989</v>
+        <v>0.05890289453046969</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>609</v>
@@ -5629,19 +5629,19 @@
         <v>400105</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>365412</v>
+        <v>369878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>431707</v>
+        <v>434316</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.05575849944646449</v>
+        <v>0.05575849944646448</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05092369285959228</v>
+        <v>0.05154605474896991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06016243758544661</v>
+        <v>0.0605260310666307</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3277784</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3250247</v>
+        <v>3250722</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3299538</v>
+        <v>3300628</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9415446835211781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9336345190000138</v>
+        <v>0.9337708772921834</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9477934909420167</v>
+        <v>0.9481065064329389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4963</v>
@@ -5679,19 +5679,19 @@
         <v>3497792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3474087</v>
+        <v>3476787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3519074</v>
+        <v>3520395</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9467827498184412</v>
+        <v>0.9467827498184415</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9403662036588801</v>
+        <v>0.9410971054695296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9525433017082923</v>
+        <v>0.9529007521593292</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8035</v>
@@ -5700,19 +5700,19 @@
         <v>6775578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6743976</v>
+        <v>6741367</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6810271</v>
+        <v>6805805</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9442415005535356</v>
+        <v>0.9442415005535354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9398375624145535</v>
+        <v>0.9394739689333693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9490763071404077</v>
+        <v>0.9484539452510301</v>
       </c>
     </row>
     <row r="18">
